--- a/tutorial/list_bmi.xlsx
+++ b/tutorial/list_bmi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>ov_file</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>\ov_files</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>meas_bmi_id</t>
   </si>
 </sst>
 </file>
@@ -536,9 +545,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -881,75 +891,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9996</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9997</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9998</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9999</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
